--- a/crm/data/archival/DocumentalsUnits/data/DocumentalsUnits.xlsx
+++ b/crm/data/archival/DocumentalsUnits/data/DocumentalsUnits.xlsx
@@ -2,26 +2,34 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\njava\simasoft\crm\data\archival\DocumentalsUnits\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930"/>
   </bookViews>
   <sheets>
     <sheet name="DocumentalsUnits" sheetId="1" r:id="rId1"/>
     <sheet name="GD" sheetId="2" r:id="rId2"/>
-    <sheet name="GE" sheetId="3" r:id="rId3"/>
+    <sheet name="AM" sheetId="4" r:id="rId3"/>
+    <sheet name="GE" sheetId="3" r:id="rId4"/>
+    <sheet name="GT" sheetId="5" r:id="rId5"/>
+    <sheet name="GF" sheetId="6" r:id="rId6"/>
+    <sheet name="GC" sheetId="7" r:id="rId7"/>
+    <sheet name="SG" sheetId="8" r:id="rId8"/>
+    <sheet name="SC" sheetId="9" r:id="rId9"/>
+    <sheet name="GQ" sheetId="10" r:id="rId10"/>
+    <sheet name="GI" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="281">
   <si>
     <t>name</t>
   </si>
@@ -74,12 +82,6 @@
     <t>ACTAS - CONSEJO DE COORDINACIÓN</t>
   </si>
   <si>
-    <t>CIRCULAR DE RECTORÍA</t>
-  </si>
-  <si>
-    <t>CORRESPONDENCIA</t>
-  </si>
-  <si>
     <t>F-GD-01</t>
   </si>
   <si>
@@ -194,9 +196,6 @@
     <t>LIBRO DE CALIFICACIONES FINAL</t>
   </si>
   <si>
-    <t>CIRCULAR</t>
-  </si>
-  <si>
     <t>F-GE-01</t>
   </si>
   <si>
@@ -273,12 +272,612 @@
   </si>
   <si>
     <t>GE-N.A</t>
+  </si>
+  <si>
+    <t>FORMULARIO DE INSCRIPCIÓN</t>
+  </si>
+  <si>
+    <t>REGISTRO DE RESULTADOS DE ADMISIÓN</t>
+  </si>
+  <si>
+    <t>HOJA DE MATRÍCULA</t>
+  </si>
+  <si>
+    <t>DEVOLUCIÓN DE DOCUMENTOS</t>
+  </si>
+  <si>
+    <t>AUTORIZACIÓN RETIRO DE ESTUDIANTES</t>
+  </si>
+  <si>
+    <t>LISTA DE CHEQUEO PARA RECEPCIÓN DE DOCUMENTOS PARA LA MATRICULA</t>
+  </si>
+  <si>
+    <t>CONTRATO DE PRESTACIÓN DEL SERVICIO EDUCATIVO</t>
+  </si>
+  <si>
+    <t>LISTADO DE ESTUDIANTES MATRICULADOS</t>
+  </si>
+  <si>
+    <t>LISTADOS DE ASPIRANTES ADMITIDOS</t>
+  </si>
+  <si>
+    <t>LISTADO DE ASPIRANTES INSCRITOS</t>
+  </si>
+  <si>
+    <t>PAZ Y SALVO ESTUDIANTES</t>
+  </si>
+  <si>
+    <t>LIBRO DE ACTAS DE GRADO</t>
+  </si>
+  <si>
+    <t>F-AM-01</t>
+  </si>
+  <si>
+    <t>F-AM-02</t>
+  </si>
+  <si>
+    <t>F-AM-04</t>
+  </si>
+  <si>
+    <t>F-AM-05</t>
+  </si>
+  <si>
+    <t>F-AM-06</t>
+  </si>
+  <si>
+    <t>L-AM-01</t>
+  </si>
+  <si>
+    <t>AM-N.A</t>
+  </si>
+  <si>
+    <t>SOLICITUD DE PERSONAL</t>
+  </si>
+  <si>
+    <t>FORMATO DE ENTREVISTA</t>
+  </si>
+  <si>
+    <t>HOJA DE VIDA INSTITUCIONAL</t>
+  </si>
+  <si>
+    <t>CONTRATO LABORAL</t>
+  </si>
+  <si>
+    <t>REGISTRO DE INDUCCIÓN</t>
+  </si>
+  <si>
+    <t>INGRESO DE PERSONAL</t>
+  </si>
+  <si>
+    <t>EVALUACIÓN DE DESEMPEÑO</t>
+  </si>
+  <si>
+    <t>REGISTRO DE NOVEDADES</t>
+  </si>
+  <si>
+    <t>ENCUESTA DE CLIMA ORGANIZACIONAL</t>
+  </si>
+  <si>
+    <t>DECLARACIÓN DE COMPETENCIA</t>
+  </si>
+  <si>
+    <t>PLAN DE FORMACIÓN</t>
+  </si>
+  <si>
+    <t>SOLICITUD DE CAPACITACIÓN</t>
+  </si>
+  <si>
+    <t>PLAN DE BIENESTAR</t>
+  </si>
+  <si>
+    <t>RETIRO DE PERSONAL</t>
+  </si>
+  <si>
+    <t>SOLICITUD DE PERMISOS</t>
+  </si>
+  <si>
+    <t>SEGUIMIENTO Y ASISTENCIA A CAPACITACIÓN</t>
+  </si>
+  <si>
+    <t>NÓMINA MENSUAL</t>
+  </si>
+  <si>
+    <t>ACTA DE DESCARGOS, CONCILIACIÓN O COMPROMISO</t>
+  </si>
+  <si>
+    <t>EVALUACIÓN DE LA ATENCIÓN A PADRES DE FAMILIA O ACUDIENTES</t>
+  </si>
+  <si>
+    <t>PAZ Y SALVO GENERAL</t>
+  </si>
+  <si>
+    <t>EVALUACIÓN DE DOCENTES (PREESCOLAR Y PRIMERO)</t>
+  </si>
+  <si>
+    <t>PROTOCOLIZACIÓN DEL PERSONAL DOCENTE</t>
+  </si>
+  <si>
+    <t>ACTA DE REUNIÓN DE COPASST</t>
+  </si>
+  <si>
+    <t>ACTAS DE COMITÉ DE CONVIVENCIA LABORAL</t>
+  </si>
+  <si>
+    <t>DOCUMENTOS DEL SISTEMA DE GESTIÓN DE LA SEGURIDAD Y SALUD EN EL TRABAJO</t>
+  </si>
+  <si>
+    <t>PLAN DE EMERGENCIAS</t>
+  </si>
+  <si>
+    <t>PLAN DE MEJORAMIENTO ENCUESTA DE CLIMA ORGANIZACIONAL</t>
+  </si>
+  <si>
+    <t>LIQUIDACIONES DE PERSONAL</t>
+  </si>
+  <si>
+    <t>F-GT-01</t>
+  </si>
+  <si>
+    <t>F-GT-02</t>
+  </si>
+  <si>
+    <t>F-GT-04</t>
+  </si>
+  <si>
+    <t>F-GT-04*</t>
+  </si>
+  <si>
+    <t>F-GT-05</t>
+  </si>
+  <si>
+    <t>F-GT-05*</t>
+  </si>
+  <si>
+    <t>F-GT-06</t>
+  </si>
+  <si>
+    <t>F-GT-08*</t>
+  </si>
+  <si>
+    <t>F-GT-09</t>
+  </si>
+  <si>
+    <t>F-GT-10</t>
+  </si>
+  <si>
+    <t>F-GT-11</t>
+  </si>
+  <si>
+    <t>F-GT-12</t>
+  </si>
+  <si>
+    <t>F-GT-13</t>
+  </si>
+  <si>
+    <t>F-GT-13*</t>
+  </si>
+  <si>
+    <t>F-GT-14</t>
+  </si>
+  <si>
+    <t>F-GT-15</t>
+  </si>
+  <si>
+    <t>F-GT15*</t>
+  </si>
+  <si>
+    <t>F-GT-16</t>
+  </si>
+  <si>
+    <t>L-GT-01</t>
+  </si>
+  <si>
+    <t>L-GT-02</t>
+  </si>
+  <si>
+    <t>L-GT-03</t>
+  </si>
+  <si>
+    <t>GT-N.A</t>
+  </si>
+  <si>
+    <t>EJECUCIÓN PRESUPUESTAL</t>
+  </si>
+  <si>
+    <t>REQUISICIÓN</t>
+  </si>
+  <si>
+    <t>CARTERA ACTUALIZADA COLEGIOS</t>
+  </si>
+  <si>
+    <t>CONCILIACIÓN CUENTA MOROSOS</t>
+  </si>
+  <si>
+    <t>RESUMEN DE CARTERA MOROSA</t>
+  </si>
+  <si>
+    <t>PLANILLA DIARIA DE VENTAS EN CAFETERIA</t>
+  </si>
+  <si>
+    <t>INFORME MENSUAL DE VENTAS EN CAFETERIA</t>
+  </si>
+  <si>
+    <t>COMPROBANTES DE EGRESO</t>
+  </si>
+  <si>
+    <t>SOPORTES COMPROBANTES DE EGRESO</t>
+  </si>
+  <si>
+    <t>F-GF-01*</t>
+  </si>
+  <si>
+    <t>F-GF-08*</t>
+  </si>
+  <si>
+    <t>F-GF-17*</t>
+  </si>
+  <si>
+    <t>F-GF-18*</t>
+  </si>
+  <si>
+    <t>F-GF-19*</t>
+  </si>
+  <si>
+    <t>L-GF-01</t>
+  </si>
+  <si>
+    <t>L-GF-02</t>
+  </si>
+  <si>
+    <t>GF-N.A</t>
+  </si>
+  <si>
+    <t>SOLICITUD Y ENTREGA DE SUMINISTROS</t>
+  </si>
+  <si>
+    <t>COMPARATIVO DE OFERTAS</t>
+  </si>
+  <si>
+    <t>ORDEN DE COMPRA</t>
+  </si>
+  <si>
+    <t>DEVOLUCIÓN DE ARTÍCULOS</t>
+  </si>
+  <si>
+    <t>RELACIÓN DE FACTURAS POR PAGAR</t>
+  </si>
+  <si>
+    <t>INSCRIPCIÓN DE PROVEEDORES</t>
+  </si>
+  <si>
+    <t>EVALUACIÓN Y SELECCIÓN DE PROVEEDORES</t>
+  </si>
+  <si>
+    <t>LISTADO DE PROVEEDORES</t>
+  </si>
+  <si>
+    <t>REEVALUACIÓN DE PROVEEDORES</t>
+  </si>
+  <si>
+    <t>SOLICITUD DE COMPRAS</t>
+  </si>
+  <si>
+    <t>KÁRDEX DE ALMACÉN</t>
+  </si>
+  <si>
+    <t>LISTADO DE INVENTARIO DE ACTIVOS Y RELACIÓN DE NOVEDADES</t>
+  </si>
+  <si>
+    <t>EVALUACIÓN DEL SERVICIO DE COMPRAS Y SUMINISTROS</t>
+  </si>
+  <si>
+    <t>REGISTROS SOPORTES DE INSCRIPCIÓN Y EVALUACIÓN DE PROVEEDORES</t>
+  </si>
+  <si>
+    <t>F-GC-01</t>
+  </si>
+  <si>
+    <t>F-GC-02</t>
+  </si>
+  <si>
+    <t>F-GC-03</t>
+  </si>
+  <si>
+    <t>F-GC-04</t>
+  </si>
+  <si>
+    <t>F-GC-05</t>
+  </si>
+  <si>
+    <t>F-GC-06</t>
+  </si>
+  <si>
+    <t>F-GC-07</t>
+  </si>
+  <si>
+    <t>F-GC-08</t>
+  </si>
+  <si>
+    <t>F-GC-09</t>
+  </si>
+  <si>
+    <t>F-GC-13</t>
+  </si>
+  <si>
+    <t>F-GF-03*</t>
+  </si>
+  <si>
+    <t>F-GF-09*</t>
+  </si>
+  <si>
+    <t>L-GC-01</t>
+  </si>
+  <si>
+    <t>GC-N.A</t>
+  </si>
+  <si>
+    <t>PLAN DE MANTENIMIENTO</t>
+  </si>
+  <si>
+    <t>PLAN CONTROL DE PLAGAS</t>
+  </si>
+  <si>
+    <t>SOLICITUD DE MANTENIMIENTO CORRECTIVO</t>
+  </si>
+  <si>
+    <t>PLANILLA DE ACTIVIDADES DE MANTENIMIENTO</t>
+  </si>
+  <si>
+    <t>HOJA DE VIDA DE EQUIPOS</t>
+  </si>
+  <si>
+    <t>CONTROL DE ASEO SEMANAL</t>
+  </si>
+  <si>
+    <t>CONTROL DE MANTENIMIENTO DE LA PISCINA</t>
+  </si>
+  <si>
+    <t>EVALUACIÓN DEL SERVICIO DE ASEO Y MANTENIMIENTO</t>
+  </si>
+  <si>
+    <t>REPORTE DE INCIDENCIAS Y DAÑOS EN AULAS Y ZONAS COMUNAS</t>
+  </si>
+  <si>
+    <t>F-SG-01</t>
+  </si>
+  <si>
+    <t>F-SG-02</t>
+  </si>
+  <si>
+    <t>F-SG-03</t>
+  </si>
+  <si>
+    <t>F-SG-04</t>
+  </si>
+  <si>
+    <t>F-SG-05</t>
+  </si>
+  <si>
+    <t>L-SG-01</t>
+  </si>
+  <si>
+    <t>L-SG-02</t>
+  </si>
+  <si>
+    <t>L-SG-03</t>
+  </si>
+  <si>
+    <t>L-SG-04</t>
+  </si>
+  <si>
+    <t>SG-N.A</t>
+  </si>
+  <si>
+    <t>MATRIZ DE SERVICIOS COMPLEMENTARIOS</t>
+  </si>
+  <si>
+    <t>SOLICITUD DEL SERVICIO DE FOTOCOPIADO E IMPRESIÓN</t>
+  </si>
+  <si>
+    <t>F-SC-01</t>
+  </si>
+  <si>
+    <t>L-SC-01</t>
+  </si>
+  <si>
+    <t>SC-N.A</t>
+  </si>
+  <si>
+    <t>ELABORACIÓN, MODIFICACIÓN O ELIMINACIÓN DE DOCUMENTOS DEL SGC</t>
+  </si>
+  <si>
+    <t>LISTADO MAESTRO DE DOCUMENTOS</t>
+  </si>
+  <si>
+    <t>LISTADO MAESTRO DE REGISTROS</t>
+  </si>
+  <si>
+    <t>PLAN DE AUDITORÍA INTERNA</t>
+  </si>
+  <si>
+    <t>ACTA DE APERTURA Y CIERRE DE AUDITORÍA INTERNA</t>
+  </si>
+  <si>
+    <t>LISTA DE CHEQUEO</t>
+  </si>
+  <si>
+    <t>EVALUACIÓN DE GESTIÓN DE LA AUDITORÍA</t>
+  </si>
+  <si>
+    <t>INFORME DE AUDITORÍA INTERNA</t>
+  </si>
+  <si>
+    <t>CONTROL DEL SERVICIO NO CONFORME</t>
+  </si>
+  <si>
+    <t>IMPLEMENTACIÓN DE ACCIONES CORRECTIVAS, PREVENTIVAS O DE MEJORA</t>
+  </si>
+  <si>
+    <t>QUEJAS, SUGERENCIAS Y FELICITACIONES</t>
+  </si>
+  <si>
+    <t>SEGUIMIENTO Y CONTROL DE QUEJAS, SUGERENCIAS Y FELICITACIONES</t>
+  </si>
+  <si>
+    <t>COMPORTAMIENTO DE LOS INDICADORES DE GESTIÓN</t>
+  </si>
+  <si>
+    <t>ENCUESTA DE SATISFACCIÓN DE PADRES DE FAMILIA Y ESTUDIANTES</t>
+  </si>
+  <si>
+    <t>MATRIZ DE POSIBLES SERVICIOS NO CONFORMES</t>
+  </si>
+  <si>
+    <t>NFORME DE RESULTADOS DE ENCUESTAS DE SATISFACCIÓN</t>
+  </si>
+  <si>
+    <t>ACTA DE REUNIÓN DEL COMITÉ DE LA CALIDAD</t>
+  </si>
+  <si>
+    <t>F-GQ-01</t>
+  </si>
+  <si>
+    <t>F-GQ-03</t>
+  </si>
+  <si>
+    <t>F-GQ-04</t>
+  </si>
+  <si>
+    <t>F-GQ-05</t>
+  </si>
+  <si>
+    <t>F-GQ-06</t>
+  </si>
+  <si>
+    <t>F-GQ-07</t>
+  </si>
+  <si>
+    <t>F-GQ-08</t>
+  </si>
+  <si>
+    <t>F-GQ-09</t>
+  </si>
+  <si>
+    <t>F-GQ-10</t>
+  </si>
+  <si>
+    <t>F-GQ-11</t>
+  </si>
+  <si>
+    <t>F-GQ-12</t>
+  </si>
+  <si>
+    <t>F-GQ-13</t>
+  </si>
+  <si>
+    <t>F-GQ-14</t>
+  </si>
+  <si>
+    <t>F-GQ-15</t>
+  </si>
+  <si>
+    <t>F-GQ-16</t>
+  </si>
+  <si>
+    <t>GQ-N.A</t>
+  </si>
+  <si>
+    <t>RADICACIÓN Y DISTRIBUCIÓN DE CORRESPONDENCIA RECIBIDA</t>
+  </si>
+  <si>
+    <t>RADICACIÓN DE CORRESPONDENCIA ENVIADA</t>
+  </si>
+  <si>
+    <t>ENTRADA DE DOCUMENTOS AL ARCHIVO CENTRAL</t>
+  </si>
+  <si>
+    <t>DEPURACIÓN DE ARCHIVO</t>
+  </si>
+  <si>
+    <t>F-GI-01</t>
+  </si>
+  <si>
+    <t>F-GI-02</t>
+  </si>
+  <si>
+    <t>F-GI-04</t>
+  </si>
+  <si>
+    <t>F-GI-05</t>
+  </si>
+  <si>
+    <t>GI-N.A</t>
+  </si>
+  <si>
+    <t>GD-CIRCULAR DE RECTORÍA</t>
+  </si>
+  <si>
+    <t>GD-CORRESPONDENCIA</t>
+  </si>
+  <si>
+    <t>AM-CORRESPONDENCIA</t>
+  </si>
+  <si>
+    <t>AM-CIRCULAR</t>
+  </si>
+  <si>
+    <t>GE-CORRESPONDENCIA</t>
+  </si>
+  <si>
+    <t>GE-CIRCULAR</t>
+  </si>
+  <si>
+    <t>GT-CORRESPONDENCIA</t>
+  </si>
+  <si>
+    <t>GT-CIRCULAR</t>
+  </si>
+  <si>
+    <t>GF-CORRESPONDENCIA</t>
+  </si>
+  <si>
+    <t>GF-CIRCULAR</t>
+  </si>
+  <si>
+    <t>GC-CORRESPONDENCIA</t>
+  </si>
+  <si>
+    <t>GC-CIRCULAR</t>
+  </si>
+  <si>
+    <t>SG-CORRESPONDENCIA</t>
+  </si>
+  <si>
+    <t>SG-CIRCULAR</t>
+  </si>
+  <si>
+    <t>SC-CORRESPONDENCIA</t>
+  </si>
+  <si>
+    <t>SC-CIRCULAR</t>
+  </si>
+  <si>
+    <t>GQ-CORRESPONDENCIA</t>
+  </si>
+  <si>
+    <t>GQ-CIRCULAR</t>
+  </si>
+  <si>
+    <t>GI-CORRESPONDENCIA</t>
+  </si>
+  <si>
+    <t>GI-CIRCULAR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -778,7 +1377,7 @@
     <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
@@ -1079,17 +1678,1574 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B163"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B18"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="59.28515625" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>261</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>262</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B31" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>264</v>
+      </c>
+      <c r="B32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>44</v>
+      </c>
+      <c r="B54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>45</v>
+      </c>
+      <c r="B55" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>46</v>
+      </c>
+      <c r="B56" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>47</v>
+      </c>
+      <c r="B57" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>48</v>
+      </c>
+      <c r="B58" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>50</v>
+      </c>
+      <c r="B60" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>51</v>
+      </c>
+      <c r="B61" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>52</v>
+      </c>
+      <c r="B62" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>53</v>
+      </c>
+      <c r="B63" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>54</v>
+      </c>
+      <c r="B64" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>265</v>
+      </c>
+      <c r="B65" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>266</v>
+      </c>
+      <c r="B66" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>100</v>
+      </c>
+      <c r="B67" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>101</v>
+      </c>
+      <c r="B68" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>102</v>
+      </c>
+      <c r="B69" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>103</v>
+      </c>
+      <c r="B70" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>104</v>
+      </c>
+      <c r="B71" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>105</v>
+      </c>
+      <c r="B72" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>106</v>
+      </c>
+      <c r="B73" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>107</v>
+      </c>
+      <c r="B74" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>108</v>
+      </c>
+      <c r="B75" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>109</v>
+      </c>
+      <c r="B76" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>110</v>
+      </c>
+      <c r="B77" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>111</v>
+      </c>
+      <c r="B78" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>112</v>
+      </c>
+      <c r="B79" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>113</v>
+      </c>
+      <c r="B80" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>114</v>
+      </c>
+      <c r="B81" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>115</v>
+      </c>
+      <c r="B82" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>116</v>
+      </c>
+      <c r="B83" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>117</v>
+      </c>
+      <c r="B84" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>118</v>
+      </c>
+      <c r="B85" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>119</v>
+      </c>
+      <c r="B86" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>120</v>
+      </c>
+      <c r="B87" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>121</v>
+      </c>
+      <c r="B88" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>122</v>
+      </c>
+      <c r="B89" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>123</v>
+      </c>
+      <c r="B90" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>124</v>
+      </c>
+      <c r="B91" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>125</v>
+      </c>
+      <c r="B92" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>126</v>
+      </c>
+      <c r="B93" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>127</v>
+      </c>
+      <c r="B94" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>267</v>
+      </c>
+      <c r="B95" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>268</v>
+      </c>
+      <c r="B96" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>150</v>
+      </c>
+      <c r="B97" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>151</v>
+      </c>
+      <c r="B98" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>152</v>
+      </c>
+      <c r="B99" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>153</v>
+      </c>
+      <c r="B100" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>154</v>
+      </c>
+      <c r="B101" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>155</v>
+      </c>
+      <c r="B102" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>156</v>
+      </c>
+      <c r="B103" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>157</v>
+      </c>
+      <c r="B104" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>158</v>
+      </c>
+      <c r="B105" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>269</v>
+      </c>
+      <c r="B106" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>270</v>
+      </c>
+      <c r="B107" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>167</v>
+      </c>
+      <c r="B108" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>168</v>
+      </c>
+      <c r="B109" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>169</v>
+      </c>
+      <c r="B110" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>170</v>
+      </c>
+      <c r="B111" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>171</v>
+      </c>
+      <c r="B112" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>172</v>
+      </c>
+      <c r="B113" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>173</v>
+      </c>
+      <c r="B114" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>174</v>
+      </c>
+      <c r="B115" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>175</v>
+      </c>
+      <c r="B116" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>176</v>
+      </c>
+      <c r="B117" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>177</v>
+      </c>
+      <c r="B118" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>178</v>
+      </c>
+      <c r="B119" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>179</v>
+      </c>
+      <c r="B120" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>180</v>
+      </c>
+      <c r="B121" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>271</v>
+      </c>
+      <c r="B122" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>272</v>
+      </c>
+      <c r="B123" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>195</v>
+      </c>
+      <c r="B124" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>196</v>
+      </c>
+      <c r="B125" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>197</v>
+      </c>
+      <c r="B126" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>198</v>
+      </c>
+      <c r="B127" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>199</v>
+      </c>
+      <c r="B128" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>200</v>
+      </c>
+      <c r="B129" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>201</v>
+      </c>
+      <c r="B130" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>202</v>
+      </c>
+      <c r="B131" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>203</v>
+      </c>
+      <c r="B132" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>273</v>
+      </c>
+      <c r="B133" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>274</v>
+      </c>
+      <c r="B134" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>214</v>
+      </c>
+      <c r="B135" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>215</v>
+      </c>
+      <c r="B136" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>275</v>
+      </c>
+      <c r="B137" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>276</v>
+      </c>
+      <c r="B138" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>219</v>
+      </c>
+      <c r="B139" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>220</v>
+      </c>
+      <c r="B140" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>221</v>
+      </c>
+      <c r="B141" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>222</v>
+      </c>
+      <c r="B142" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>223</v>
+      </c>
+      <c r="B143" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>224</v>
+      </c>
+      <c r="B144" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>225</v>
+      </c>
+      <c r="B145" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>226</v>
+      </c>
+      <c r="B146" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>227</v>
+      </c>
+      <c r="B147" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>228</v>
+      </c>
+      <c r="B148" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>229</v>
+      </c>
+      <c r="B149" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>230</v>
+      </c>
+      <c r="B150" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>231</v>
+      </c>
+      <c r="B151" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>232</v>
+      </c>
+      <c r="B152" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>233</v>
+      </c>
+      <c r="B153" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>234</v>
+      </c>
+      <c r="B154" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>235</v>
+      </c>
+      <c r="B155" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>277</v>
+      </c>
+      <c r="B156" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>278</v>
+      </c>
+      <c r="B157" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>252</v>
+      </c>
+      <c r="B158" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>253</v>
+      </c>
+      <c r="B159" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>254</v>
+      </c>
+      <c r="B160" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>255</v>
+      </c>
+      <c r="B161" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>279</v>
+      </c>
+      <c r="B162" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>280</v>
+      </c>
+      <c r="B163" t="s">
+        <v>260</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="68.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>227</v>
+      </c>
+      <c r="B10" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>228</v>
+      </c>
+      <c r="B11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>229</v>
+      </c>
+      <c r="B12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>230</v>
+      </c>
+      <c r="B13" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>231</v>
+      </c>
+      <c r="B14" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>232</v>
+      </c>
+      <c r="B15" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>233</v>
+      </c>
+      <c r="B16" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>234</v>
+      </c>
+      <c r="B17" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>235</v>
+      </c>
+      <c r="B18" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>277</v>
+      </c>
+      <c r="B19" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>278</v>
+      </c>
+      <c r="B20" t="s">
+        <v>251</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="57.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>279</v>
+      </c>
+      <c r="B6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>280</v>
+      </c>
+      <c r="B7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1099,7 +3255,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="A2" sqref="A2:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1120,7 +3276,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1128,7 +3284,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1136,7 +3292,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1144,7 +3300,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1152,7 +3308,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1160,7 +3316,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1168,7 +3324,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1176,7 +3332,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1184,7 +3340,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1192,7 +3348,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1200,7 +3356,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1208,7 +3364,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1216,7 +3372,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1224,7 +3380,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1232,23 +3388,23 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>261</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>262</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1258,10 +3414,148 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="68.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>263</v>
+      </c>
+      <c r="B14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>264</v>
+      </c>
+      <c r="B15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1279,274 +3573,980 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B32" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B33" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>18</v>
+        <v>265</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>266</v>
       </c>
       <c r="B35" t="s">
-        <v>83</v>
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="73.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>124</v>
+      </c>
+      <c r="B26" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>267</v>
+      </c>
+      <c r="B30" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>268</v>
+      </c>
+      <c r="B31" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>269</v>
+      </c>
+      <c r="B11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>270</v>
+      </c>
+      <c r="B12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="68.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>178</v>
+      </c>
+      <c r="B13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>179</v>
+      </c>
+      <c r="B14" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>271</v>
+      </c>
+      <c r="B16" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>272</v>
+      </c>
+      <c r="B17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="58.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B10" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>273</v>
+      </c>
+      <c r="B11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>274</v>
+      </c>
+      <c r="B12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="51.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B5" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/crm/data/archival/DocumentalsUnits/data/DocumentalsUnits.xlsx
+++ b/crm/data/archival/DocumentalsUnits/data/DocumentalsUnits.xlsx
@@ -1680,13 +1680,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.28515625" customWidth="1"/>
+    <col min="1" max="1" width="79.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
